--- a/medicine/Autisme/Sean_Barron/Sean_Barron.xlsx
+++ b/medicine/Autisme/Sean_Barron/Sean_Barron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sean Barron, né en 1961, est un journaliste de The Youngstown Vindicator dans l'Ohio. 
-Il est le co-auteur de deux livres sur l'autisme. There's a Boy in Here: Emerging from the Bonds of Autism a été écrit avec sa mère, Judy Barron. Avec Temple Grandin , il a co-écrit Comprendre les règles tacites des relations sociales. Il a rencontré sa petite amie, Barbara Protopapa, à l'une de ses dédicaces[1]. Bien que diagnostiqué autiste à l'âge de 4 ans, en 1965, il se considère comme "guéri" de l'autisme, car il n'est plus affecté négativement au quotidien. En 1992, il a commencé à parler en public de l'autisme lors de conférences au sujet de ses expériences[2],[3].
+Il est le co-auteur de deux livres sur l'autisme. There's a Boy in Here: Emerging from the Bonds of Autism a été écrit avec sa mère, Judy Barron. Avec Temple Grandin , il a co-écrit Comprendre les règles tacites des relations sociales. Il a rencontré sa petite amie, Barbara Protopapa, à l'une de ses dédicaces. Bien que diagnostiqué autiste à l'âge de 4 ans, en 1965, il se considère comme "guéri" de l'autisme, car il n'est plus affecté négativement au quotidien. En 1992, il a commencé à parler en public de l'autisme lors de conférences au sujet de ses expériences,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Judy Barron et Sean Barron (trad. de l'anglais par Martine Leroy Battistelli), Moi l'enfant autiste [« There's a Boy in Here »], Paris, Plon, 1993 (1re éd. 1992), 304 p. (ISBN 2-259-02598-6 et 978-2-259-02598-0).
 (en) Temple Grandin et Sean Barron (trad. de l'anglais par Françoise Forin-Mateos), Comprendre les règles tacites des relations sociales : Décoder les mystères de la vie en société à travers l'autisme [« The unwritten rules of social relationships »], Bruxelles, De Boeck Supérieur, coll. « Questions de personne / TED », 2014, 384 p. (ISBN 978-2-8041-2133-4).</t>
